--- a/mic_positions/data/mic_pos_distances.xlsx
+++ b/mic_positions/data/mic_pos_distances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fulbr\OneDrive\Documents\01 Uni OneDrive\13 WiSe 2425\02 MAP Microphone Array Project\Bassoon Project\02 Code\Bassoon2425\mic_positions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2948C671-E3D4-4C88-9960-F8F22CE56A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3211EC77-5C19-4C3D-AFB2-321E5684F8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-97" yWindow="0" windowWidth="13938" windowHeight="12272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13551" yWindow="0" windowWidth="7082" windowHeight="12176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>B6</t>
   </si>
@@ -123,12 +123,51 @@
   </si>
   <si>
     <t>error</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,11 +235,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -208,6 +244,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -512,296 +557,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6530DE0A-6807-465D-8DB9-55636284AB24}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="12.5" style="1" customWidth="1"/>
+    <col min="1" max="5" width="12.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="11.19921875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4">
-        <v>1.26</v>
+      <c r="C2" s="3">
+        <v>1.262</v>
       </c>
       <c r="D2" s="4">
         <v>1.256</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f>C2-D2</f>
-        <v>4.0000000000000036E-3</v>
+        <v>6.0000000000000053E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.67</v>
+      <c r="C3" s="3">
+        <v>1.57</v>
       </c>
       <c r="D3" s="4">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E15" si="0">C3-D3</f>
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E30" si="0">C3-D3</f>
+        <v>2.100000000000013E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.577</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.579</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3000000000000131E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.3000000000000123E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.492</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>-4.9999999999998934E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
         <v>-3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.175</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.181</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>-6.0000000000000053E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.65</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.651</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000001119E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.4159999999999999</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.397</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>1.8999999999999906E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>-2.3999999999999966E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.4850000000000001</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1.77</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1.758</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000011E-2</v>
-      </c>
-    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4">
-        <v>1.9750000000000001</v>
+      <c r="C10" s="3">
+        <v>1.9650000000000001</v>
       </c>
       <c r="D10" s="4">
-        <v>1.9390000000000001</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>3.6000000000000032E-2</v>
+        <v>1.9370000000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000025E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="4">
-        <v>1.3009999999999999</v>
+      <c r="C11" s="3">
+        <v>1.645</v>
       </c>
       <c r="D11" s="4">
-        <v>1.2869999999999999</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000012E-2</v>
+        <v>1.6</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999929E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1.385</v>
       </c>
       <c r="D12" s="4">
         <v>1.343</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>4.2000000000000037E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4">
-        <v>1.407</v>
+      <c r="C13" s="3">
+        <v>1.4</v>
       </c>
       <c r="D13" s="4">
         <v>1.365</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>3.499999999999992E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.504</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.8999999999999915E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1.462</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0000000000001137E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.014</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.008</v>
+      </c>
+      <c r="E16" s="3">
+        <f>C16-D16</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1999999999999806E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999901E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>4.2000000000000037E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1.4850000000000001</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.462</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3000000000000131E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1.9630000000000001</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1.976</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.2999999999999901E-2</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.359</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>4.7999999999999821E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1.379</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.347</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1.381</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1.347</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>3.400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000039E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3000000000000047E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000046E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.5000000000000124E-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E15">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
         <cfvo type="max"/>
-        <color rgb="FFC00000"/>
+        <color rgb="FFFF0000"/>
         <color rgb="FF00B050"/>
-        <color rgb="FFC00000"/>
+        <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
